--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
   <si>
     <t>Doi</t>
   </si>
@@ -134,6 +134,94 @@
   </si>
   <si>
     <t>[Gagan%Kalra%NULL%1,   Andrew M.%Williams%NULL%1,   Patrick W.%Commiskey%NULL%1,   Eve M. R.%Bowers%NULL%1,   Tadhg%Schempf%NULL%1,   José-Alain%Sahel%NULL%1,   Evan L.%Waxman%waxmane@upmc.edu%1,   Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The coronavirus disease 2019 (COVID-19) pandemic has led to rapid adoption of teleophthalmology to deliver eyecare remotely.
+ The purpose of our study was to assess the implementation and patient acceptability of video consultation for outpatient ophthalmic care at our institution.
+Methods
+id="Par2"&gt;We conducted a retrospective, cross-sectional analysis and patient survey of adult patients who completed a virtual video visit at our institution from 18 March 18 through to 27 April 2020. All video visit encounters were assessed for patient characteristics, diagnoses, management, and follow-up outcomes.
+ Patients were surveyed for their feedback on acceptability and utility of their virtual video consultation.
+Results
+id="Par3"&gt;A total of 219 patients (mean age 55 years; range 21–89 years) completed 231 video visit encounters at our department over a 6-week period, of whom 118 were women (54%).
+ About half of these encounters were acute visits (102 visits, 47%).
+ The most common diagnosis of these visits was postoperative state (20 visits, 9% of the total), followed by conjunctivitis (16 visits, 7%), and keratitis (14 visits, 6%).
+ The most common management decisions were medication prescription (102 visits, 46%) or reassurance (86 visits, 39%), while 17 video visit patients (8%) were escalated to an urgent, in-person evaluation.
+ Ninety-two patients completed a follow-up survey (42% response rate), of whom 45 (49%) indicated that they might have delayed seeking care during this pandemic in the absence of a virtual video option.
+ Seventy-two (78%) reported that they would consider participating in a video visit as an alternative to an office-based encounter in the future, and the overall video visit experience was rated highly, with a weighted mean Likert scale rating of 4.3 out of 5 (Cronbach’s α = 0.88).
+Conclusion
+id="Par4"&gt;Virtual video visits may be used to manage a range of ophthalmic complaints.
+ Patients participating in this survey found such video visits acceptable and timesaving, and the majority would consider using video consultations for future eyecare encounters.
+</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,    Andrew M.%Williams%NULL%1,    Patrick W.%Commiskey%NULL%1,    Eve M. R.%Bowers%NULL%1,    Tadhg%Schempf%NULL%1,    José-Alain%Sahel%NULL%1,    Evan L.%Waxman%waxmane@upmc.edu%1,    Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The coronavirus disease 2019 (COVID-19) pandemic has led to rapid adoption of teleophthalmology to deliver eyecare remotely.
+ The purpose of our study was to assess the implementation and patient acceptability of video consultation for outpatient ophthalmic care at our institution.
+Methods
+We conducted a retrospective, cross-sectional analysis and patient survey of adult patients who completed a virtual video visit at our institution from 18 March 18 through to 27 April 2020. All video visit encounters were assessed for patient characteristics, diagnoses, management, and follow-up outcomes.
+ Patients were surveyed for their feedback on acceptability and utility of their virtual video consultation.
+Results
+id="Par3"&gt;A total of 219 patients (mean age 55 years; range 21–89 years) completed 231 video visit encounters at our department over a 6-week period, of whom 118 were women (54%).
+ About half of these encounters were acute visits (102 visits, 47%).
+ The most common diagnosis of these visits was postoperative state (20 visits, 9% of the total), followed by conjunctivitis (16 visits, 7%), and keratitis (14 visits, 6%).
+ The most common management decisions were medication prescription (102 visits, 46%) or reassurance (86 visits, 39%), while 17 video visit patients (8%) were escalated to an urgent, in-person evaluation.
+ Ninety-two patients completed a follow-up survey (42% response rate), of whom 45 (49%) indicated that they might have delayed seeking care during this pandemic in the absence of a virtual video option.
+ Seventy-two (78%) reported that they would consider participating in a video visit as an alternative to an office-based encounter in the future, and the overall video visit experience was rated highly, with a weighted mean Likert scale rating of 4.3 out of 5 (Cronbach’s α = 0.88).
+Conclusion
+id="Par4"&gt;Virtual video visits may be used to manage a range of ophthalmic complaints.
+ Patients participating in this survey found such video visits acceptable and timesaving, and the majority would consider using video consultations for future eyecare encounters.
+</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,     Andrew M.%Williams%NULL%1,     Patrick W.%Commiskey%NULL%1,     Eve M. R.%Bowers%NULL%1,     Tadhg%Schempf%NULL%1,     José-Alain%Sahel%NULL%1,     Evan L.%Waxman%waxmane@upmc.edu%1,     Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The coronavirus disease 2019 (COVID-19) pandemic has led to rapid adoption of teleophthalmology to deliver eyecare remotely.
+ The purpose of our study was to assess the implementation and patient acceptability of video consultation for outpatient ophthalmic care at our institution.
+Methods
+We conducted a retrospective, cross-sectional analysis and patient survey of adult patients who completed a virtual video visit at our institution from 18 March 18 through to 27 April 2020. All video visit encounters were assessed for patient characteristics, diagnoses, management, and follow-up outcomes.
+ Patients were surveyed for their feedback on acceptability and utility of their virtual video consultation.
+Results
+A total of 219 patients (mean age 55 years; range 21–89 years) completed 231 video visit encounters at our department over a 6-week period, of whom 118 were women (54%).
+ About half of these encounters were acute visits (102 visits, 47%).
+ The most common diagnosis of these visits was postoperative state (20 visits, 9% of the total), followed by conjunctivitis (16 visits, 7%), and keratitis (14 visits, 6%).
+ The most common management decisions were medication prescription (102 visits, 46%) or reassurance (86 visits, 39%), while 17 video visit patients (8%) were escalated to an urgent, in-person evaluation.
+ Ninety-two patients completed a follow-up survey (42% response rate), of whom 45 (49%) indicated that they might have delayed seeking care during this pandemic in the absence of a virtual video option.
+ Seventy-two (78%) reported that they would consider participating in a video visit as an alternative to an office-based encounter in the future, and the overall video visit experience was rated highly, with a weighted mean Likert scale rating of 4.3 out of 5 (Cronbach’s α = 0.88).
+Conclusion
+id="Par4"&gt;Virtual video visits may be used to manage a range of ophthalmic complaints.
+ Patients participating in this survey found such video visits acceptable and timesaving, and the majority would consider using video consultations for future eyecare encounters.
+</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,      Andrew M.%Williams%NULL%1,      Patrick W.%Commiskey%NULL%1,      Eve M. R.%Bowers%NULL%1,      Tadhg%Schempf%NULL%1,      José-Alain%Sahel%NULL%1,      Evan L.%Waxman%waxmane@upmc.edu%1,      Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The coronavirus disease 2019 (COVID-19) pandemic has led to rapid adoption of teleophthalmology to deliver eyecare remotely.
+ The purpose of our study was to assess the implementation and patient acceptability of video consultation for outpatient ophthalmic care at our institution.
+Methods
+We conducted a retrospective, cross-sectional analysis and patient survey of adult patients who completed a virtual video visit at our institution from 18 March 18 through to 27 April 2020. All video visit encounters were assessed for patient characteristics, diagnoses, management, and follow-up outcomes.
+ Patients were surveyed for their feedback on acceptability and utility of their virtual video consultation.
+Results
+A total of 219 patients (mean age 55 years; range 21–89 years) completed 231 video visit encounters at our department over a 6-week period, of whom 118 were women (54%).
+ About half of these encounters were acute visits (102 visits, 47%).
+ The most common diagnosis of these visits was postoperative state (20 visits, 9% of the total), followed by conjunctivitis (16 visits, 7%), and keratitis (14 visits, 6%).
+ The most common management decisions were medication prescription (102 visits, 46%) or reassurance (86 visits, 39%), while 17 video visit patients (8%) were escalated to an urgent, in-person evaluation.
+ Ninety-two patients completed a follow-up survey (42% response rate), of whom 45 (49%) indicated that they might have delayed seeking care during this pandemic in the absence of a virtual video option.
+ Seventy-two (78%) reported that they would consider participating in a video visit as an alternative to an office-based encounter in the future, and the overall video visit experience was rated highly, with a weighted mean Likert scale rating of 4.3 out of 5 (Cronbach’s α = 0.88).
+Conclusion
+Virtual video visits may be used to manage a range of ophthalmic complaints.
+ Patients participating in this survey found such video visits acceptable and timesaving, and the majority would consider using video consultations for future eyecare encounters.
+</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,       Andrew M.%Williams%NULL%1,       Patrick W.%Commiskey%NULL%1,       Eve M. R.%Bowers%NULL%1,       Tadhg%Schempf%NULL%1,       José-Alain%Sahel%NULL%1,       Evan L.%Waxman%waxmane@upmc.edu%1,       Roxana%Fu%fur3@upmc.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -481,10 +569,10 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>

--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>Doi</t>
   </si>
@@ -134,94 +134,6 @@
   </si>
   <si>
     <t>[Gagan%Kalra%NULL%1,   Andrew M.%Williams%NULL%1,   Patrick W.%Commiskey%NULL%1,   Eve M. R.%Bowers%NULL%1,   Tadhg%Schempf%NULL%1,   José-Alain%Sahel%NULL%1,   Evan L.%Waxman%waxmane@upmc.edu%1,   Roxana%Fu%fur3@upmc.edu%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-The coronavirus disease 2019 (COVID-19) pandemic has led to rapid adoption of teleophthalmology to deliver eyecare remotely.
- The purpose of our study was to assess the implementation and patient acceptability of video consultation for outpatient ophthalmic care at our institution.
-Methods
-id="Par2"&gt;We conducted a retrospective, cross-sectional analysis and patient survey of adult patients who completed a virtual video visit at our institution from 18 March 18 through to 27 April 2020. All video visit encounters were assessed for patient characteristics, diagnoses, management, and follow-up outcomes.
- Patients were surveyed for their feedback on acceptability and utility of their virtual video consultation.
-Results
-id="Par3"&gt;A total of 219 patients (mean age 55 years; range 21–89 years) completed 231 video visit encounters at our department over a 6-week period, of whom 118 were women (54%).
- About half of these encounters were acute visits (102 visits, 47%).
- The most common diagnosis of these visits was postoperative state (20 visits, 9% of the total), followed by conjunctivitis (16 visits, 7%), and keratitis (14 visits, 6%).
- The most common management decisions were medication prescription (102 visits, 46%) or reassurance (86 visits, 39%), while 17 video visit patients (8%) were escalated to an urgent, in-person evaluation.
- Ninety-two patients completed a follow-up survey (42% response rate), of whom 45 (49%) indicated that they might have delayed seeking care during this pandemic in the absence of a virtual video option.
- Seventy-two (78%) reported that they would consider participating in a video visit as an alternative to an office-based encounter in the future, and the overall video visit experience was rated highly, with a weighted mean Likert scale rating of 4.3 out of 5 (Cronbach’s α = 0.88).
-Conclusion
-id="Par4"&gt;Virtual video visits may be used to manage a range of ophthalmic complaints.
- Patients participating in this survey found such video visits acceptable and timesaving, and the majority would consider using video consultations for future eyecare encounters.
-</t>
-  </si>
-  <si>
-    <t>[Gagan%Kalra%NULL%1,    Andrew M.%Williams%NULL%1,    Patrick W.%Commiskey%NULL%1,    Eve M. R.%Bowers%NULL%1,    Tadhg%Schempf%NULL%1,    José-Alain%Sahel%NULL%1,    Evan L.%Waxman%waxmane@upmc.edu%1,    Roxana%Fu%fur3@upmc.edu%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-The coronavirus disease 2019 (COVID-19) pandemic has led to rapid adoption of teleophthalmology to deliver eyecare remotely.
- The purpose of our study was to assess the implementation and patient acceptability of video consultation for outpatient ophthalmic care at our institution.
-Methods
-We conducted a retrospective, cross-sectional analysis and patient survey of adult patients who completed a virtual video visit at our institution from 18 March 18 through to 27 April 2020. All video visit encounters were assessed for patient characteristics, diagnoses, management, and follow-up outcomes.
- Patients were surveyed for their feedback on acceptability and utility of their virtual video consultation.
-Results
-id="Par3"&gt;A total of 219 patients (mean age 55 years; range 21–89 years) completed 231 video visit encounters at our department over a 6-week period, of whom 118 were women (54%).
- About half of these encounters were acute visits (102 visits, 47%).
- The most common diagnosis of these visits was postoperative state (20 visits, 9% of the total), followed by conjunctivitis (16 visits, 7%), and keratitis (14 visits, 6%).
- The most common management decisions were medication prescription (102 visits, 46%) or reassurance (86 visits, 39%), while 17 video visit patients (8%) were escalated to an urgent, in-person evaluation.
- Ninety-two patients completed a follow-up survey (42% response rate), of whom 45 (49%) indicated that they might have delayed seeking care during this pandemic in the absence of a virtual video option.
- Seventy-two (78%) reported that they would consider participating in a video visit as an alternative to an office-based encounter in the future, and the overall video visit experience was rated highly, with a weighted mean Likert scale rating of 4.3 out of 5 (Cronbach’s α = 0.88).
-Conclusion
-id="Par4"&gt;Virtual video visits may be used to manage a range of ophthalmic complaints.
- Patients participating in this survey found such video visits acceptable and timesaving, and the majority would consider using video consultations for future eyecare encounters.
-</t>
-  </si>
-  <si>
-    <t>[Gagan%Kalra%NULL%1,     Andrew M.%Williams%NULL%1,     Patrick W.%Commiskey%NULL%1,     Eve M. R.%Bowers%NULL%1,     Tadhg%Schempf%NULL%1,     José-Alain%Sahel%NULL%1,     Evan L.%Waxman%waxmane@upmc.edu%1,     Roxana%Fu%fur3@upmc.edu%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-The coronavirus disease 2019 (COVID-19) pandemic has led to rapid adoption of teleophthalmology to deliver eyecare remotely.
- The purpose of our study was to assess the implementation and patient acceptability of video consultation for outpatient ophthalmic care at our institution.
-Methods
-We conducted a retrospective, cross-sectional analysis and patient survey of adult patients who completed a virtual video visit at our institution from 18 March 18 through to 27 April 2020. All video visit encounters were assessed for patient characteristics, diagnoses, management, and follow-up outcomes.
- Patients were surveyed for their feedback on acceptability and utility of their virtual video consultation.
-Results
-A total of 219 patients (mean age 55 years; range 21–89 years) completed 231 video visit encounters at our department over a 6-week period, of whom 118 were women (54%).
- About half of these encounters were acute visits (102 visits, 47%).
- The most common diagnosis of these visits was postoperative state (20 visits, 9% of the total), followed by conjunctivitis (16 visits, 7%), and keratitis (14 visits, 6%).
- The most common management decisions were medication prescription (102 visits, 46%) or reassurance (86 visits, 39%), while 17 video visit patients (8%) were escalated to an urgent, in-person evaluation.
- Ninety-two patients completed a follow-up survey (42% response rate), of whom 45 (49%) indicated that they might have delayed seeking care during this pandemic in the absence of a virtual video option.
- Seventy-two (78%) reported that they would consider participating in a video visit as an alternative to an office-based encounter in the future, and the overall video visit experience was rated highly, with a weighted mean Likert scale rating of 4.3 out of 5 (Cronbach’s α = 0.88).
-Conclusion
-id="Par4"&gt;Virtual video visits may be used to manage a range of ophthalmic complaints.
- Patients participating in this survey found such video visits acceptable and timesaving, and the majority would consider using video consultations for future eyecare encounters.
-</t>
-  </si>
-  <si>
-    <t>[Gagan%Kalra%NULL%1,      Andrew M.%Williams%NULL%1,      Patrick W.%Commiskey%NULL%1,      Eve M. R.%Bowers%NULL%1,      Tadhg%Schempf%NULL%1,      José-Alain%Sahel%NULL%1,      Evan L.%Waxman%waxmane@upmc.edu%1,      Roxana%Fu%fur3@upmc.edu%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-The coronavirus disease 2019 (COVID-19) pandemic has led to rapid adoption of teleophthalmology to deliver eyecare remotely.
- The purpose of our study was to assess the implementation and patient acceptability of video consultation for outpatient ophthalmic care at our institution.
-Methods
-We conducted a retrospective, cross-sectional analysis and patient survey of adult patients who completed a virtual video visit at our institution from 18 March 18 through to 27 April 2020. All video visit encounters were assessed for patient characteristics, diagnoses, management, and follow-up outcomes.
- Patients were surveyed for their feedback on acceptability and utility of their virtual video consultation.
-Results
-A total of 219 patients (mean age 55 years; range 21–89 years) completed 231 video visit encounters at our department over a 6-week period, of whom 118 were women (54%).
- About half of these encounters were acute visits (102 visits, 47%).
- The most common diagnosis of these visits was postoperative state (20 visits, 9% of the total), followed by conjunctivitis (16 visits, 7%), and keratitis (14 visits, 6%).
- The most common management decisions were medication prescription (102 visits, 46%) or reassurance (86 visits, 39%), while 17 video visit patients (8%) were escalated to an urgent, in-person evaluation.
- Ninety-two patients completed a follow-up survey (42% response rate), of whom 45 (49%) indicated that they might have delayed seeking care during this pandemic in the absence of a virtual video option.
- Seventy-two (78%) reported that they would consider participating in a video visit as an alternative to an office-based encounter in the future, and the overall video visit experience was rated highly, with a weighted mean Likert scale rating of 4.3 out of 5 (Cronbach’s α = 0.88).
-Conclusion
-Virtual video visits may be used to manage a range of ophthalmic complaints.
- Patients participating in this survey found such video visits acceptable and timesaving, and the majority would consider using video consultations for future eyecare encounters.
-</t>
-  </si>
-  <si>
-    <t>[Gagan%Kalra%NULL%1,       Andrew M.%Williams%NULL%1,       Patrick W.%Commiskey%NULL%1,       Eve M. R.%Bowers%NULL%1,       Tadhg%Schempf%NULL%1,       José-Alain%Sahel%NULL%1,       Evan L.%Waxman%waxmane@upmc.edu%1,       Roxana%Fu%fur3@upmc.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -569,10 +481,10 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>

--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="35">
   <si>
     <t>Doi</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>[Gagan%Kalra%NULL%1,   Andrew M.%Williams%NULL%1,   Patrick W.%Commiskey%NULL%1,   Eve M. R.%Bowers%NULL%1,   Tadhg%Schempf%NULL%1,   José-Alain%Sahel%NULL%1,   Evan L.%Waxman%waxmane@upmc.edu%1,   Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,    Padmaja K%Rani%NULL%1,    Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,    Andrew M.%Williams%NULL%1,    Patrick W.%Commiskey%NULL%1,    Eve M. R.%Bowers%NULL%1,    Tadhg%Schempf%NULL%1,    José-Alain%Sahel%NULL%1,    Evan L.%Waxman%waxmane@upmc.edu%1,    Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
   </si>
 </sst>
 </file>
@@ -443,6 +458,9 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -458,7 +476,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -468,6 +486,9 @@
       </c>
       <c r="H2" t="s">
         <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +505,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -494,6 +515,9 @@
       </c>
       <c r="H3" t="s">
         <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="41">
   <si>
     <t>Doi</t>
   </si>
@@ -149,6 +149,24 @@
   </si>
   <si>
     <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,     Padmaja K%Rani%NULL%1,     Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,     Andrew M.%Williams%NULL%1,     Patrick W.%Commiskey%NULL%1,     Eve M. R.%Bowers%NULL%1,     Tadhg%Schempf%NULL%1,     José-Alain%Sahel%NULL%1,     Evan L.%Waxman%waxmane@upmc.edu%1,     Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,      Padmaja K%Rani%NULL%1,      Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,      Andrew M.%Williams%NULL%1,      Patrick W.%Commiskey%NULL%1,      Eve M. R.%Bowers%NULL%1,      Tadhg%Schempf%NULL%1,      José-Alain%Sahel%NULL%1,      Evan L.%Waxman%waxmane@upmc.edu%1,      Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,       Padmaja K%Rani%NULL%1,       Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,       Andrew M.%Williams%NULL%1,       Patrick W.%Commiskey%NULL%1,       Eve M. R.%Bowers%NULL%1,       Tadhg%Schempf%NULL%1,       José-Alain%Sahel%NULL%1,       Evan L.%Waxman%waxmane@upmc.edu%1,       Roxana%Fu%fur3@upmc.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -476,7 +494,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -505,7 +523,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>

--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="45">
   <si>
     <t>Doi</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>[Gagan%Kalra%NULL%1,       Andrew M.%Williams%NULL%1,       Patrick W.%Commiskey%NULL%1,       Eve M. R.%Bowers%NULL%1,       Tadhg%Schempf%NULL%1,       José-Alain%Sahel%NULL%1,       Evan L.%Waxman%waxmane@upmc.edu%1,       Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,        Padmaja K%Rani%NULL%1,        Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,        Andrew M.%Williams%NULL%1,        Patrick W.%Commiskey%NULL%1,        Eve M. R.%Bowers%NULL%1,        Tadhg%Schempf%NULL%1,        José-Alain%Sahel%NULL%1,        Evan L.%Waxman%waxmane@upmc.edu%1,        Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,         Padmaja K%Rani%NULL%1,         Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,         Andrew M.%Williams%NULL%1,         Patrick W.%Commiskey%NULL%1,         Eve M. R.%Bowers%NULL%1,         Tadhg%Schempf%NULL%1,         José-Alain%Sahel%NULL%1,         Evan L.%Waxman%waxmane@upmc.edu%1,         Roxana%Fu%fur3@upmc.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -494,7 +506,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -523,7 +535,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>

--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="49">
   <si>
     <t>Doi</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>[Gagan%Kalra%NULL%1,         Andrew M.%Williams%NULL%1,         Patrick W.%Commiskey%NULL%1,         Eve M. R.%Bowers%NULL%1,         Tadhg%Schempf%NULL%1,         José-Alain%Sahel%NULL%1,         Evan L.%Waxman%waxmane@upmc.edu%1,         Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,          Padmaja K%Rani%NULL%1,          Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,          Andrew M.%Williams%NULL%1,          Patrick W.%Commiskey%NULL%1,          Eve M. R.%Bowers%NULL%1,          Tadhg%Schempf%NULL%1,          José-Alain%Sahel%NULL%1,          Evan L.%Waxman%waxmane@upmc.edu%1,          Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,           Padmaja K%Rani%NULL%1,           Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,           Andrew M.%Williams%NULL%1,           Patrick W.%Commiskey%NULL%1,           Eve M. R.%Bowers%NULL%1,           Tadhg%Schempf%NULL%1,           José-Alain%Sahel%NULL%1,           Evan L.%Waxman%waxmane@upmc.edu%1,           Roxana%Fu%fur3@upmc.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -506,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -535,7 +547,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>

--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="54">
   <si>
     <t>Doi</t>
   </si>
@@ -191,6 +191,37 @@
   </si>
   <si>
     <t>[Gagan%Kalra%NULL%1,           Andrew M.%Williams%NULL%1,           Patrick W.%Commiskey%NULL%1,           Eve M. R.%Bowers%NULL%1,           Tadhg%Schempf%NULL%1,           José-Alain%Sahel%NULL%1,           Evan L.%Waxman%waxmane@upmc.edu%1,           Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,            Padmaja K%Rani%NULL%1,            Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The coronavirus disease 2019 (COVID-19) pandemic has led to rapid adoption of teleophthalmology to deliver eyecare remotely.
+ The purpose of our study was to assess the implementation and patient acceptability of video consultation for outpatient ophthalmic care at our institution.
+Methods
+We conducted a retrospective, cross-sectional analysis and patient survey of adult patients who completed a virtual video visit at our institution from 18 March 18 through to 27 April 2020. All video visit encounters were assessed for patient characteristics, diagnoses, management, and follow-up outcomes.
+ Patients were surveyed for their feedback on acceptability and utility of their virtual video consultation.
+Results
+A total of 219 patients (mean age 55 years; range 21–89 years) completed 231 video visit encounters at our department over a 6-week period, of whom 118 were women (54%).
+ About half of these encounters were acute visits (102 visits, 47%).
+ The most common diagnosis of these visits was postoperative state (20 visits, 9% of the total), followed by conjunctivitis (16 visits, 7%), and keratitis (14 visits, 6%).
+ The most common management decisions were medication prescription (102 visits, 46%) or reassurance (86 visits, 39%), while 17 video visit patients (8%) were escalated to an urgent, in-person evaluation.
+ Ninety-two patients completed a follow-up survey (42% response rate), of whom 45 (49%) indicated that they might have delayed seeking care during this pandemic in the absence of a virtual video option.
+ Seventy-two (78%) reported that they would consider participating in a video visit as an alternative to an office-based encounter in the future, and the overall video visit experience was rated highly, with a weighted mean Likert scale rating of 4.3 out of 5 (Cronbach’s α = 0.88).
+Conclusion
+Virtual video visits may be used to manage a range of ophthalmic complaints.
+ Patients participating in this survey found such video visits acceptable and timesaving, and the majority would consider using video consultations for future eyecare encounters.
+</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,            Andrew M.%Williams%NULL%1,            Patrick W.%Commiskey%NULL%1,            Eve M. R.%Bowers%NULL%1,            Tadhg%Schempf%NULL%1,            José-Alain%Sahel%NULL%1,            Evan L.%Waxman%waxmane@upmc.edu%1,            Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,             Padmaja K%Rani%NULL%1,             Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,             Andrew M.%Williams%NULL%1,             Patrick W.%Commiskey%NULL%1,             Eve M. R.%Bowers%NULL%1,             Tadhg%Schempf%NULL%1,             José-Alain%Sahel%NULL%1,             Evan L.%Waxman%waxmane@upmc.edu%1,             Roxana%Fu%fur3@upmc.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -518,7 +549,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -544,10 +575,10 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>

--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="56">
   <si>
     <t>Doi</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>[Gagan%Kalra%NULL%1,             Andrew M.%Williams%NULL%1,             Patrick W.%Commiskey%NULL%1,             Eve M. R.%Bowers%NULL%1,             Tadhg%Schempf%NULL%1,             José-Alain%Sahel%NULL%1,             Evan L.%Waxman%waxmane@upmc.edu%1,             Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,              Padmaja K%Rani%NULL%1,              Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,              Andrew M.%Williams%NULL%1,              Patrick W.%Commiskey%NULL%1,              Eve M. R.%Bowers%NULL%1,              Tadhg%Schempf%NULL%1,              José-Alain%Sahel%NULL%1,              Evan L.%Waxman%waxmane@upmc.edu%1,              Roxana%Fu%fur3@upmc.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -549,7 +555,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -578,7 +584,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>

--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="58">
   <si>
     <t>Doi</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>[Gagan%Kalra%NULL%1,              Andrew M.%Williams%NULL%1,              Patrick W.%Commiskey%NULL%1,              Eve M. R.%Bowers%NULL%1,              Tadhg%Schempf%NULL%1,              José-Alain%Sahel%NULL%1,              Evan L.%Waxman%waxmane@upmc.edu%1,              Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,               Padmaja K%Rani%NULL%1,               Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,               Andrew M.%Williams%NULL%1,               Patrick W.%Commiskey%NULL%1,               Eve M. R.%Bowers%NULL%1,               Tadhg%Schempf%NULL%1,               José-Alain%Sahel%NULL%1,               Evan L.%Waxman%waxmane@upmc.edu%1,               Roxana%Fu%fur3@upmc.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -555,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -584,7 +590,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>

--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="62">
   <si>
     <t>Doi</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>[Gagan%Kalra%NULL%1,               Andrew M.%Williams%NULL%1,               Patrick W.%Commiskey%NULL%1,               Eve M. R.%Bowers%NULL%1,               Tadhg%Schempf%NULL%1,               José-Alain%Sahel%NULL%1,               Evan L.%Waxman%waxmane@upmc.edu%1,               Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,                Padmaja K%Rani%NULL%1,                Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,                Andrew M.%Williams%NULL%1,                Patrick W.%Commiskey%NULL%1,                Eve M. R.%Bowers%NULL%1,                Tadhg%Schempf%NULL%1,                José-Alain%Sahel%NULL%1,                Evan L.%Waxman%waxmane@upmc.edu%1,                Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,                 Padmaja K%Rani%NULL%1,                 Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,                 Andrew M.%Williams%NULL%1,                 Patrick W.%Commiskey%NULL%1,                 Eve M. R.%Bowers%NULL%1,                 Tadhg%Schempf%NULL%1,                 José-Alain%Sahel%NULL%1,                 Evan L.%Waxman%waxmane@upmc.edu%1,                 Roxana%Fu%fur3@upmc.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -561,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -590,7 +602,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>

--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="64">
   <si>
     <t>Doi</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>[Gagan%Kalra%NULL%1,                 Andrew M.%Williams%NULL%1,                 Patrick W.%Commiskey%NULL%1,                 Eve M. R.%Bowers%NULL%1,                 Tadhg%Schempf%NULL%1,                 José-Alain%Sahel%NULL%1,                 Evan L.%Waxman%waxmane@upmc.edu%1,                 Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,                  Padmaja K%Rani%NULL%1,                  Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,                  Andrew M.%Williams%NULL%1,                  Patrick W.%Commiskey%NULL%1,                  Eve M. R.%Bowers%NULL%1,                  Tadhg%Schempf%NULL%1,                  José-Alain%Sahel%NULL%1,                  Evan L.%Waxman%waxmane@upmc.edu%1,                  Roxana%Fu%fur3@upmc.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -573,7 +579,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -602,7 +608,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>

--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="68">
   <si>
     <t>Doi</t>
   </si>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>[Gagan%Kalra%NULL%1,                  Andrew M.%Williams%NULL%1,                  Patrick W.%Commiskey%NULL%1,                  Eve M. R.%Bowers%NULL%1,                  Tadhg%Schempf%NULL%1,                  José-Alain%Sahel%NULL%1,                  Evan L.%Waxman%waxmane@upmc.edu%1,                  Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,                   Padmaja K%Rani%NULL%1,                   Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,                   Andrew M.%Williams%NULL%1,                   Patrick W.%Commiskey%NULL%1,                   Eve M. R.%Bowers%NULL%1,                   Tadhg%Schempf%NULL%1,                   José-Alain%Sahel%NULL%1,                   Evan L.%Waxman%waxmane@upmc.edu%1,                   Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -579,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -591,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -608,7 +620,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -620,7 +632,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="70">
   <si>
     <t>Doi</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,                    Padmaja K%Rani%NULL%1,                    Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,                    Andrew M.%Williams%NULL%1,                    Patrick W.%Commiskey%NULL%1,                    Eve M. R.%Bowers%NULL%1,                    Tadhg%Schempf%NULL%1,                    José-Alain%Sahel%NULL%1,                    Evan L.%Waxman%waxmane@upmc.edu%1,                    Roxana%Fu%fur3@upmc.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -591,7 +597,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -620,7 +626,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>

--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="82">
   <si>
     <t>Doi</t>
   </si>
@@ -270,6 +270,42 @@
   </si>
   <si>
     <t>[Gagan%Kalra%NULL%1,                    Andrew M.%Williams%NULL%1,                    Patrick W.%Commiskey%NULL%1,                    Eve M. R.%Bowers%NULL%1,                    Tadhg%Schempf%NULL%1,                    José-Alain%Sahel%NULL%1,                    Evan L.%Waxman%waxmane@upmc.edu%1,                    Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,                     Padmaja K%Rani%NULL%1,                     Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,                     Andrew M.%Williams%NULL%1,                     Patrick W.%Commiskey%NULL%1,                     Eve M. R.%Bowers%NULL%1,                     Tadhg%Schempf%NULL%1,                     José-Alain%Sahel%NULL%1,                     Evan L.%Waxman%waxmane@upmc.edu%1,                     Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,                      Padmaja K%Rani%NULL%1,                      Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,                      Andrew M.%Williams%NULL%1,                      Patrick W.%Commiskey%NULL%1,                      Eve M. R.%Bowers%NULL%1,                      Tadhg%Schempf%NULL%1,                      José-Alain%Sahel%NULL%1,                      Evan L.%Waxman%waxmane@upmc.edu%1,                      Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,                       Padmaja K%Rani%NULL%1,                       Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,                       Andrew M.%Williams%NULL%1,                       Patrick W.%Commiskey%NULL%1,                       Eve M. R.%Bowers%NULL%1,                       Tadhg%Schempf%NULL%1,                       José-Alain%Sahel%NULL%1,                       Evan L.%Waxman%waxmane@upmc.edu%1,                       Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,                        Padmaja K%Rani%NULL%1,                        Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,                        Andrew M.%Williams%NULL%1,                        Patrick W.%Commiskey%NULL%1,                        Eve M. R.%Bowers%NULL%1,                        Tadhg%Schempf%NULL%1,                        José-Alain%Sahel%NULL%1,                        Evan L.%Waxman%waxmane@upmc.edu%1,                        Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,                         Padmaja K%Rani%NULL%1,                         Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,                         Andrew M.%Williams%NULL%1,                         Patrick W.%Commiskey%NULL%1,                         Eve M. R.%Bowers%NULL%1,                         Tadhg%Schempf%NULL%1,                         José-Alain%Sahel%NULL%1,                         Evan L.%Waxman%waxmane@upmc.edu%1,                         Roxana%Fu%fur3@upmc.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -582,6 +618,9 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -597,7 +636,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -610,6 +649,9 @@
       </c>
       <c r="I2" t="s">
         <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -626,7 +668,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -639,6 +681,9 @@
       </c>
       <c r="I3" t="s">
         <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/87.xlsx
+++ b/Covid_19_Dataset_and_References/References/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="86">
   <si>
     <t>Doi</t>
   </si>
@@ -306,6 +306,18 @@
   </si>
   <si>
     <t>[Gagan%Kalra%NULL%1,                         Andrew M.%Williams%NULL%1,                         Patrick W.%Commiskey%NULL%1,                         Eve M. R.%Bowers%NULL%1,                         Tadhg%Schempf%NULL%1,                         José-Alain%Sahel%NULL%1,                         Evan L.%Waxman%waxmane@upmc.edu%1,                         Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,                          Padmaja K%Rani%NULL%1,                          Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,                          Andrew M.%Williams%NULL%1,                          Patrick W.%Commiskey%NULL%1,                          Eve M. R.%Bowers%NULL%1,                          Tadhg%Schempf%NULL%1,                          José-Alain%Sahel%NULL%1,                          Evan L.%Waxman%waxmane@upmc.edu%1,                          Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,                           Padmaja K%Rani%NULL%1,                           Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,                           Andrew M.%Williams%NULL%1,                           Patrick W.%Commiskey%NULL%1,                           Eve M. R.%Bowers%NULL%1,                           Tadhg%Schempf%NULL%1,                           José-Alain%Sahel%NULL%1,                           Evan L.%Waxman%waxmane@upmc.edu%1,                           Roxana%Fu%fur3@upmc.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -636,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -668,7 +680,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
